--- a/language/多语言V1.0.xlsx
+++ b/language/多语言V1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14856" windowHeight="7620"/>
+    <workbookView windowWidth="25152" windowHeight="13104"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1258,7 +1258,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="13.2" outlineLevelCol="4"/>
